--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H2">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I2">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J2">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>19.67404023428556</v>
+        <v>1.066127970548889</v>
       </c>
       <c r="R2">
-        <v>177.06636210857</v>
+        <v>9.595151734939998</v>
       </c>
       <c r="S2">
-        <v>0.01959955433082159</v>
+        <v>0.001420690356350116</v>
       </c>
       <c r="T2">
-        <v>0.02229880110188448</v>
+        <v>0.001587929848504463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H3">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I3">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J3">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>3.213539717212</v>
+        <v>0.2559812135239999</v>
       </c>
       <c r="R3">
-        <v>28.921857454908</v>
+        <v>2.303830921716</v>
       </c>
       <c r="S3">
-        <v>0.003201373257943671</v>
+        <v>0.0003411129353196819</v>
       </c>
       <c r="T3">
-        <v>0.003642265753947143</v>
+        <v>0.0003812677472497794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H4">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I4">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J4">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>4.260040002185</v>
+        <v>0.420325216978</v>
       </c>
       <c r="R4">
-        <v>38.340360019665</v>
+        <v>3.782926952802</v>
       </c>
       <c r="S4">
-        <v>0.004243911493521974</v>
+        <v>0.0005601128558553577</v>
       </c>
       <c r="T4">
-        <v>0.004828382150467045</v>
+        <v>0.0006260476946072905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H5">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I5">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J5">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>8.158717981509335</v>
+        <v>0.659047623444</v>
       </c>
       <c r="R5">
-        <v>48.95230788905601</v>
+        <v>3.954285740664</v>
       </c>
       <c r="S5">
-        <v>0.008127829080565571</v>
+        <v>0.000878227219308677</v>
       </c>
       <c r="T5">
-        <v>0.006164794736263677</v>
+        <v>0.00065440636381507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H6">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I6">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J6">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>4.979461817920334</v>
+        <v>0.3810672908433334</v>
       </c>
       <c r="R6">
-        <v>44.815156361283</v>
+        <v>3.42960561759</v>
       </c>
       <c r="S6">
-        <v>0.004960609578733297</v>
+        <v>0.0005077989136171557</v>
       </c>
       <c r="T6">
-        <v>0.005643783755140105</v>
+        <v>0.0005675755088831642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>20.607907</v>
       </c>
       <c r="I7">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J7">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>384.7858707086456</v>
+        <v>261.7643366395844</v>
       </c>
       <c r="R7">
-        <v>3463.07283637781</v>
+        <v>2355.87902975626</v>
       </c>
       <c r="S7">
-        <v>0.3833290716537185</v>
+        <v>0.348819352810695</v>
       </c>
       <c r="T7">
-        <v>0.4361210760764264</v>
+        <v>0.389881341552239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>20.607907</v>
       </c>
       <c r="I8">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J8">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
         <v>62.850571789996</v>
@@ -948,10 +948,10 @@
         <v>565.655146109964</v>
       </c>
       <c r="S8">
-        <v>0.06261261956629123</v>
+        <v>0.08375279863182562</v>
       </c>
       <c r="T8">
-        <v>0.07123561722937213</v>
+        <v>0.09361193186735801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>20.607907</v>
       </c>
       <c r="I9">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J9">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>83.31807711960501</v>
+        <v>103.201636796462</v>
       </c>
       <c r="R9">
-        <v>749.862694076445</v>
+        <v>928.814731168158</v>
       </c>
       <c r="S9">
-        <v>0.08300263493410415</v>
+        <v>0.1375234251482923</v>
       </c>
       <c r="T9">
-        <v>0.09443374150693415</v>
+        <v>0.1537122784605751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>20.607907</v>
       </c>
       <c r="I10">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J10">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>159.5686175791414</v>
+        <v>161.814687101676</v>
       </c>
       <c r="R10">
-        <v>957.4117054748482</v>
+        <v>970.888122610056</v>
       </c>
       <c r="S10">
-        <v>0.1589644908973139</v>
+        <v>0.2156294289538301</v>
       </c>
       <c r="T10">
-        <v>0.1205713662310926</v>
+        <v>0.1606751276102264</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>20.607907</v>
       </c>
       <c r="I11">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J11">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>97.38856525920434</v>
+        <v>93.56271419395668</v>
       </c>
       <c r="R11">
-        <v>876.4970873328391</v>
+        <v>842.0644277456101</v>
       </c>
       <c r="S11">
-        <v>0.09701985221480637</v>
+        <v>0.1246788841876661</v>
       </c>
       <c r="T11">
-        <v>0.1103814071971047</v>
+        <v>0.1393557158988946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H12">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I12">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J12">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>84.44210532293499</v>
+        <v>24.69503873163333</v>
       </c>
       <c r="R12">
-        <v>506.65263193761</v>
+        <v>148.1702323898</v>
       </c>
       <c r="S12">
-        <v>0.08412240756739124</v>
+        <v>0.03290787254897864</v>
       </c>
       <c r="T12">
-        <v>0.06380515267149231</v>
+        <v>0.0245211270411533</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H13">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I13">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J13">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>13.792696163514</v>
+        <v>5.929368853619999</v>
       </c>
       <c r="R13">
-        <v>82.756176981084</v>
+        <v>35.57621312172</v>
       </c>
       <c r="S13">
-        <v>0.0137404770248567</v>
+        <v>0.007901300202492335</v>
       </c>
       <c r="T13">
-        <v>0.01042187521378024</v>
+        <v>0.005887612022540735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H14">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I14">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J14">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>18.2843352082575</v>
+        <v>9.736117801889998</v>
       </c>
       <c r="R14">
-        <v>109.706011249545</v>
+        <v>58.41670681133999</v>
       </c>
       <c r="S14">
-        <v>0.01821511072711347</v>
+        <v>0.0129740603863085</v>
       </c>
       <c r="T14">
-        <v>0.01381579479808098</v>
+        <v>0.00966755242225889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H15">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I15">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J15">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>35.01768395767201</v>
+        <v>15.26571578322</v>
       </c>
       <c r="R15">
-        <v>140.070735830688</v>
+        <v>61.06286313288</v>
       </c>
       <c r="S15">
-        <v>0.03488510702910308</v>
+        <v>0.02034263784003019</v>
       </c>
       <c r="T15">
-        <v>0.01763976760627163</v>
+        <v>0.01010547260558243</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H16">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I16">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J16">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>21.3721347660765</v>
+        <v>8.82677480255</v>
       </c>
       <c r="R16">
-        <v>128.232808596459</v>
+        <v>52.9606488153</v>
       </c>
       <c r="S16">
-        <v>0.0212912198778254</v>
+        <v>0.01176229700943011</v>
       </c>
       <c r="T16">
-        <v>0.01614896166373582</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J17">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>56.01527666666667</v>
-      </c>
-      <c r="N17">
-        <v>168.04583</v>
-      </c>
-      <c r="O17">
-        <v>0.4883616647765734</v>
-      </c>
-      <c r="P17">
-        <v>0.5237161609491596</v>
-      </c>
-      <c r="Q17">
-        <v>1.315612131311111</v>
-      </c>
-      <c r="R17">
-        <v>11.8405091818</v>
-      </c>
-      <c r="S17">
-        <v>0.001310631224642124</v>
-      </c>
-      <c r="T17">
-        <v>0.001491131099356427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J18">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>9.149483999999999</v>
-      </c>
-      <c r="N18">
-        <v>27.448452</v>
-      </c>
-      <c r="O18">
-        <v>0.07976854715323708</v>
-      </c>
-      <c r="P18">
-        <v>0.08554331818550501</v>
-      </c>
-      <c r="Q18">
-        <v>0.21489088088</v>
-      </c>
-      <c r="R18">
-        <v>1.93401792792</v>
-      </c>
-      <c r="S18">
-        <v>0.0002140773041454856</v>
-      </c>
-      <c r="T18">
-        <v>0.000243559988405497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J19">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>12.129045</v>
-      </c>
-      <c r="N19">
-        <v>36.387135</v>
-      </c>
-      <c r="O19">
-        <v>0.1057454494708373</v>
-      </c>
-      <c r="P19">
-        <v>0.1134007945935868</v>
-      </c>
-      <c r="Q19">
-        <v>0.2848708369</v>
-      </c>
-      <c r="R19">
-        <v>2.5638375321</v>
-      </c>
-      <c r="S19">
-        <v>0.0002837923160977473</v>
-      </c>
-      <c r="T19">
-        <v>0.0003228761381045916</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J20">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>23.229232</v>
-      </c>
-      <c r="N20">
-        <v>46.45846400000001</v>
-      </c>
-      <c r="O20">
-        <v>0.2025209386808572</v>
-      </c>
-      <c r="P20">
-        <v>0.1447881712368271</v>
-      </c>
-      <c r="Q20">
-        <v>0.5455772289066668</v>
-      </c>
-      <c r="R20">
-        <v>3.273463373440001</v>
-      </c>
-      <c r="S20">
-        <v>0.0005435116738747286</v>
-      </c>
-      <c r="T20">
-        <v>0.0004122426631992653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J21">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>14.177359</v>
-      </c>
-      <c r="N21">
-        <v>42.532077</v>
-      </c>
-      <c r="O21">
-        <v>0.1236033999184949</v>
-      </c>
-      <c r="P21">
-        <v>0.1325515550349214</v>
-      </c>
-      <c r="Q21">
-        <v>0.3329789050466667</v>
-      </c>
-      <c r="R21">
-        <v>2.99681014542</v>
-      </c>
-      <c r="S21">
-        <v>0.0003317182471298642</v>
-      </c>
-      <c r="T21">
-        <v>0.0003774024189408461</v>
+        <v>0.008764613356112111</v>
       </c>
     </row>
   </sheetData>
